--- a/Daily_Work/Signature Voucher.xlsx
+++ b/Daily_Work/Signature Voucher.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D81676-2BE2-4D35-8ADC-DB3EFA25BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78FB98-90ED-46ED-9DB9-2C5DDD6AD032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SALARY" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Ismail Hassan</a:t>
+            <a:t>Chiranjit Barai</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -875,11 +875,20 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                              Ismail Hassan</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>                              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chiranjit Barai</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> Mangrove(DHKGOP05)</a:t>
@@ -2400,8 +2409,8 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily_Work/Signature Voucher.xlsx
+++ b/Daily_Work/Signature Voucher.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC78FB98-90ED-46ED-9DB9-2C5DDD6AD032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8997F-D192-460E-8868-A7F26D52CBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t>Employee Name :</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Date :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              </t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2410,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
@@ -2533,6 +2536,11 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
